--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,16 @@
     <t>worst</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>dark</t>
   </si>
   <si>
     <t>boring</t>
@@ -58,99 +64,63 @@
     <t>addicted</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>harsh</t>
+    <t>afraid</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>false</t>
   </si>
   <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -163,49 +133,25 @@
     <t>better</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>high</t>
+    <t>glad</t>
   </si>
   <si>
     <t>love</t>
@@ -214,25 +160,13 @@
     <t>business</t>
   </si>
   <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>…</t>
@@ -614,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS35"/>
+  <dimension ref="A1:BS24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,28 +556,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="BC1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="BL1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -845,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01784838667269641</v>
+        <v>0.01651134678200633</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -863,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.01113608704480126</v>
+        <v>0.01051291269762956</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -887,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02113061463024428</v>
+        <v>0.01950032578595862</v>
       </c>
       <c r="U3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -911,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AC3">
-        <v>0.07488754600553493</v>
+        <v>0.1025172221940966</v>
       </c>
       <c r="AD3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -935,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.182570107966713</v>
+        <v>0.02386883356096583</v>
       </c>
       <c r="AM3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -959,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AU3">
-        <v>0.05880197662953202</v>
+        <v>0.08498844470081966</v>
       </c>
       <c r="AV3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -983,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.1544618592010721</v>
+        <v>0.03085844600097736</v>
       </c>
       <c r="BE3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BF3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1007,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BM3">
-        <v>0.05135317527369831</v>
+        <v>0.07633442261898232</v>
       </c>
       <c r="BN3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BO3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1031,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1039,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01487064528953553</v>
+        <v>0.01501959002409101</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -1060,10 +994,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.009680174040857883</v>
+        <v>0.009789424969126707</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -1081,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01759454673774074</v>
+        <v>0.01777162404300374</v>
       </c>
       <c r="U4">
         <v>19</v>
@@ -1108,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AC4">
-        <v>0.0678176788406686</v>
+        <v>0.09776829323119496</v>
       </c>
       <c r="AD4">
         <v>12</v>
@@ -1129,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.1524030269570406</v>
+        <v>0.02179382760910697</v>
       </c>
       <c r="AM4">
         <v>19</v>
@@ -1156,10 +1090,10 @@
         <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AU4">
-        <v>0.05468655388518734</v>
+        <v>0.08229529156871375</v>
       </c>
       <c r="AV4">
         <v>12</v>
@@ -1177,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.1298993490597646</v>
+        <v>0.02822935331487213</v>
       </c>
       <c r="BE4">
         <v>19</v>
@@ -1204,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="BM4">
-        <v>0.04860587752952604</v>
+        <v>0.07465621359474917</v>
       </c>
       <c r="BN4">
         <v>12</v>
@@ -1225,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1233,13 +1167,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003710135644771871</v>
+        <v>0.004499275554907794</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1254,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.008940176454706975</v>
+        <v>0.009017926678300149</v>
       </c>
       <c r="L5">
         <v>11</v>
@@ -1275,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004362889715778127</v>
+        <v>0.00530013031438345</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1302,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AC5">
-        <v>0.0640300517260616</v>
+        <v>0.09157967811369166</v>
       </c>
       <c r="AD5">
         <v>11</v>
@@ -1323,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.03970342605316696</v>
+        <v>0.006470610347463255</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1350,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AU5">
-        <v>0.05234891475064565</v>
+        <v>0.0779366646938237</v>
       </c>
       <c r="AV5">
         <v>11</v>
@@ -1371,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.0382865527843201</v>
+        <v>0.008343378400390943</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1398,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BM5">
-        <v>0.04693968944402</v>
+        <v>0.07120105866290544</v>
       </c>
       <c r="BN5">
         <v>11</v>
@@ -1419,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1427,13 +1361,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003704115102682261</v>
+        <v>0.004493274234617331</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1448,16 +1382,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.008152014531839192</v>
+        <v>0.006691429165239546</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1469,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004334292140852481</v>
+        <v>0.005271624043003747</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1496,16 +1430,16 @@
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AC6">
-        <v>0.05923165048275928</v>
+        <v>0.07265391122253134</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1517,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.03927647317076914</v>
+        <v>0.006409212224491587</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1544,16 +1478,16 @@
         <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AU6">
-        <v>0.04889156456662652</v>
+        <v>0.06444441563345749</v>
       </c>
       <c r="AV6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1565,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03778993602986161</v>
+        <v>0.00822935331487213</v>
       </c>
       <c r="BE6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1592,16 +1526,16 @@
         <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="BM6">
-        <v>0.04410334450483436</v>
+        <v>0.06039135739047163</v>
       </c>
       <c r="BN6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BO6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1613,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1621,13 +1555,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002971720841071263</v>
+        <v>0.003747395855659674</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1639,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.005216106355594004</v>
+        <v>0.005268458989395706</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1669,13 +1603,13 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.00350747031757789</v>
+        <v>0.004407273171526307</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1687,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AC7">
-        <v>0.04458652908867896</v>
+        <v>0.06387589637402881</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1717,13 +1651,13 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.03258860868314668</v>
+        <v>0.005371709248562156</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1735,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AU7">
-        <v>0.04010086355319845</v>
+        <v>0.05989084624063775</v>
       </c>
       <c r="AV7">
         <v>6</v>
@@ -1765,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.03264254200345171</v>
+        <v>0.006914806971819515</v>
       </c>
       <c r="BE7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1783,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="BM7">
-        <v>0.03802367058965</v>
+        <v>0.05792341229581061</v>
       </c>
       <c r="BN7">
         <v>6</v>
@@ -1815,13 +1749,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002965700298981653</v>
+        <v>0.003723390574497818</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1833,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.004470088227353487</v>
+        <v>0.004514964659440539</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1863,13 +1797,13 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003478872742652244</v>
+        <v>0.004293248086007493</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1881,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AC8">
-        <v>0.04067255520798505</v>
+        <v>0.05822716356450112</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1911,13 +1845,13 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.03216165580074887</v>
+        <v>0.005126116756675479</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1929,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AU8">
-        <v>0.03762326053747208</v>
+        <v>0.05615677201929176</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1959,13 +1893,13 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.03214592524899323</v>
+        <v>0.006458706629744257</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -1977,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BM8">
-        <v>0.03621121289743401</v>
+        <v>0.05513461207932085</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -2009,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002947638672712824</v>
+        <v>0.003001517476702017</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2027,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.003724070099112972</v>
+        <v>0.003761470329485372</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2057,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003393080017875305</v>
+        <v>0.003542922300048868</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2075,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AC9">
-        <v>0.03675858132729115</v>
+        <v>0.05257843075497343</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2105,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.03088079715355542</v>
+        <v>0.004334206272632726</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2123,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AU9">
-        <v>0.03514565752174571</v>
+        <v>0.05242269779794576</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2153,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.03065607498561777</v>
+        <v>0.0056002606287669</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2171,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BM9">
-        <v>0.03439875520521802</v>
+        <v>0.0523458118628311</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2203,7 +2137,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002935597588533605</v>
+        <v>0.002995516156411554</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2221,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.002972031428782846</v>
+        <v>0.003001974679239741</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -2251,7 +2185,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003335884868024012</v>
+        <v>0.003514416028669165</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2269,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AC10">
-        <v>0.03271826068051031</v>
+        <v>0.04674973717612053</v>
       </c>
       <c r="AD10">
         <v>3</v>
@@ -2299,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.03002689138875978</v>
+        <v>0.004272808149661057</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2317,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AU10">
-        <v>0.03252809062483465</v>
+        <v>0.04848043935875174</v>
       </c>
       <c r="AV10">
         <v>3</v>
@@ -2347,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.0296628414767008</v>
+        <v>0.005486235543248086</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2365,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="BM10">
-        <v>0.03244002790629208</v>
+        <v>0.04933489340789002</v>
       </c>
       <c r="BN10">
         <v>3</v>
@@ -2397,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002227285495281045</v>
+        <v>0.002249637777453897</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2418,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.002232033842631939</v>
+        <v>0.002170463185508543</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2439,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002623453344452006</v>
+        <v>0.002650065157191725</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2466,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AC11">
-        <v>0.02893063356590332</v>
+        <v>0.03876151436536519</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2487,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02504683843072859</v>
+        <v>0.003235305173731628</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2514,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AU11">
-        <v>0.03019045149029296</v>
+        <v>0.04203997030538149</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2535,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02650191446812485</v>
+        <v>0.004171689200195471</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2562,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="BM11">
-        <v>0.03077383982078604</v>
+        <v>0.04397941121336182</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2591,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002227285495281045</v>
+        <v>0.002249637777453897</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2612,16 +2546,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.001486015714391423</v>
+        <v>0.001618341718785863</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2633,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002623453344452006</v>
+        <v>0.002650065157191725</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2660,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC12">
-        <v>0.02501665968520941</v>
+        <v>0.03563223232639035</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2687,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.02504683843072859</v>
+        <v>0.003235305173731628</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2708,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AU12">
-        <v>0.02771284847456658</v>
+        <v>0.04122047513390775</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2735,7 +2669,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.02650191446812485</v>
+        <v>0.004171689200195471</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2756,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BM12">
-        <v>0.02896138212857005</v>
+        <v>0.04397941121336182</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2785,13 +2719,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002227285495281045</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2806,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.001486015714391423</v>
+        <v>0.00150098733961987</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2833,13 +2767,13 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002623453344452006</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2854,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AC13">
-        <v>0.02501665968520941</v>
+        <v>0.03563223232639035</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2881,13 +2815,13 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.02504683843072859</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2902,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AU13">
-        <v>0.02771284847456658</v>
+        <v>0.04122047513390775</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2929,13 +2863,13 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.02650191446812485</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -2950,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="BM13">
-        <v>0.02896138212857005</v>
+        <v>0.04397941121336182</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2979,13 +2913,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002227285495281045</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3000,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.001486015714391423</v>
+        <v>0.00150098733961987</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3027,13 +2961,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002623453344452006</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3048,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AC14">
-        <v>0.02501665968520941</v>
+        <v>0.03563223232639035</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3075,13 +3009,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.02504683843072859</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3096,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AU14">
-        <v>0.02771284847456658</v>
+        <v>0.04122047513390775</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3123,13 +3057,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.02650191446812485</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3144,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="BM14">
-        <v>0.02896138212857005</v>
+        <v>0.04397941121336182</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3173,13 +3107,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002227285495281045</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3194,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.001486015714391423</v>
+        <v>0.00150098733961987</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3221,13 +3155,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002623453344452006</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3242,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AC15">
-        <v>0.02501665968520941</v>
+        <v>0.03563223232639035</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3269,13 +3203,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.02504683843072859</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3290,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AU15">
-        <v>0.02771284847456658</v>
+        <v>0.04122047513390775</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3317,13 +3251,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.02650191446812485</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3338,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="BM15">
-        <v>0.02896138212857005</v>
+        <v>0.0437572929749105</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3359,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3367,13 +3301,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002227285495281045</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3388,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.001486015714391423</v>
+        <v>0.00150098733961987</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3415,13 +3349,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002623453344452006</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3436,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AC16">
-        <v>0.02501665968520941</v>
+        <v>0.03545227155706514</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3457,19 +3391,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.02504683843072859</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3484,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AU16">
-        <v>0.02771284847456658</v>
+        <v>0.04101229091605973</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3505,19 +3439,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.02650191446812485</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3532,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="BM16">
-        <v>0.02896138212857005</v>
+        <v>0.0437572929749105</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3553,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3561,13 +3495,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002227285495281045</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3582,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.001486015714391423</v>
+        <v>0.001494986019329406</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3603,19 +3537,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002623453344452006</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3630,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AC17">
-        <v>0.02501665968520941</v>
+        <v>0.03545227155706514</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3651,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.02504683843072859</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3678,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AU17">
-        <v>0.02771284847456658</v>
+        <v>0.04101229091605973</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3699,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.02650191446812485</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3726,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BM17">
-        <v>0.02896138212857005</v>
+        <v>0.0437572929749105</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3747,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3755,13 +3689,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002227285495281045</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3776,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.001486015714391423</v>
+        <v>0.001494986019329406</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3797,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002623453344452006</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3824,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AC18">
-        <v>0.02501665968520941</v>
+        <v>0.03545227155706514</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3845,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.02504683843072859</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3872,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AU18">
-        <v>0.02771284847456658</v>
+        <v>0.04101229091605973</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3893,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.02650191446812485</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3920,16 +3854,16 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="BM18">
-        <v>0.02896138212857005</v>
+        <v>0.04365855609153307</v>
       </c>
       <c r="BN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP18">
         <v>1</v>
@@ -3941,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3949,7 +3883,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001482850149490827</v>
+        <v>0.001497758078205777</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3970,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.001486015714391423</v>
+        <v>0.001494986019329406</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3991,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001739436371326122</v>
+        <v>0.001757208014334582</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4018,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AC19">
-        <v>0.02501665968520941</v>
+        <v>0.03509235001841474</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4039,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.01750506817831049</v>
+        <v>0.002136404074830529</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4066,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AU19">
-        <v>0.02771284847456658</v>
+        <v>0.0405959224803637</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4087,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.02036128693279798</v>
+        <v>0.002743117771624043</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4114,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="BM19">
-        <v>0.02896138212857005</v>
+        <v>0.04331305649800785</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4135,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4143,7 +4077,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001482850149490827</v>
+        <v>0.001491756757915313</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4161,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.001486015714391423</v>
+        <v>0.001482983378748479</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4185,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001739436371326122</v>
+        <v>0.001728701742954879</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4209,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AC20">
-        <v>0.02501665968520941</v>
+        <v>0.03509235001841474</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4233,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01750506817831049</v>
+        <v>0.00207500595185886</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4257,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AU20">
-        <v>0.02771284847456658</v>
+        <v>0.0405959224803637</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4281,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.02036128693279798</v>
+        <v>0.002629092686105229</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4305,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="BM20">
-        <v>0.02896138212857005</v>
+        <v>0.04331305649800785</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4329,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4337,7 +4271,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001482850149490827</v>
+        <v>0.001491756757915313</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4355,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.001486015714391423</v>
+        <v>0.001482983378748479</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4379,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001739436371326122</v>
+        <v>0.001728701742954879</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4403,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AC21">
-        <v>0.02501665968520941</v>
+        <v>0.03401258540246351</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4427,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01750506817831049</v>
+        <v>0.00207500595185886</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4451,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AU21">
-        <v>0.02771284847456658</v>
+        <v>0.03934681717327559</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4475,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.02036128693279798</v>
+        <v>0.002629092686105229</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4499,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="BM21">
-        <v>0.02896138212857005</v>
+        <v>0.04198034706729992</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4523,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4531,7 +4465,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001482850149490827</v>
+        <v>0.001491756757915313</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4549,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.001486015714391423</v>
+        <v>0.001446975457005695</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4573,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001739436371326122</v>
+        <v>0.001728701742954879</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4597,19 +4531,19 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC22">
-        <v>0.02501665968520941</v>
+        <v>0.02220512358744644</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4621,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01750506817831049</v>
+        <v>0.00207500595185886</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4645,19 +4579,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AU22">
-        <v>0.02771284847456658</v>
+        <v>0.02288702226336375</v>
       </c>
       <c r="AV22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -4669,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.02036128693279798</v>
+        <v>0.002629092686105229</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4693,19 +4627,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BM22">
-        <v>0.02896138212857005</v>
+        <v>0.02322367815401142</v>
       </c>
       <c r="BN22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4717,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4725,7 +4659,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001482850149490827</v>
+        <v>0.001491756757915313</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4743,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.001486015714391423</v>
+        <v>0.0003127259221080167</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4767,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001739436371326122</v>
+        <v>0.001728701742954879</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4791,13 +4725,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AC23">
-        <v>0.02501665968520941</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4815,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01750506817831049</v>
+        <v>0.00207500595185886</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4839,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AU23">
-        <v>0.02771284847456658</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4863,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.02036128693279798</v>
+        <v>0.002629092686105229</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4887,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="BM23">
-        <v>0.02896138212857005</v>
+        <v>0</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4911,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4919,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001482850149490827</v>
+        <v>0.001485755437624849</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4937,37 +4871,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24">
-        <v>0.001486015714391423</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001739436371326122</v>
+        <v>0.001700195471575175</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4985,37 +4895,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC24">
-        <v>0.02501665968520941</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.01750506817831049</v>
+        <v>0.00201360782888719</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5033,37 +4919,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU24">
-        <v>0.02771284847456658</v>
-      </c>
-      <c r="AV24">
-        <v>1</v>
-      </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>1</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.02036128693279798</v>
+        <v>0.002515067600586415</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5081,2069 +4943,7 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
-      </c>
-      <c r="BL24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM24">
-        <v>0.02896138212857005</v>
-      </c>
-      <c r="BN24">
-        <v>1</v>
-      </c>
-      <c r="BO24">
-        <v>1</v>
-      </c>
-      <c r="BP24">
-        <v>1</v>
-      </c>
-      <c r="BQ24">
-        <v>0</v>
-      </c>
-      <c r="BR24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.001482850149490827</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25">
-        <v>0.001479995172301813</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001739436371326122</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC25">
-        <v>0.02489031291912249</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.01750506817831049</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU25">
-        <v>0.0275728845933819</v>
-      </c>
-      <c r="AV25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>1</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.02036128693279798</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM25">
-        <v>0.0288151125218601</v>
-      </c>
-      <c r="BN25">
-        <v>1</v>
-      </c>
-      <c r="BO25">
-        <v>1</v>
-      </c>
-      <c r="BP25">
-        <v>1</v>
-      </c>
-      <c r="BQ25">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001482850149490827</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26">
-        <v>0.001479995172301813</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001739436371326122</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC26">
-        <v>0.02489031291912249</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.01750506817831049</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU26">
-        <v>0.0275728845933819</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.02036128693279798</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM26">
-        <v>0.0288151125218601</v>
-      </c>
-      <c r="BN26">
-        <v>1</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
-      </c>
-      <c r="BP26">
-        <v>1</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001482850149490827</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>0.001479995172301813</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001739436371326122</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC27">
-        <v>0.02489031291912249</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.01750506817831049</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU27">
-        <v>0.0275728845933819</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.02036128693279798</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM27">
-        <v>0.0288151125218601</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001482850149490827</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28">
-        <v>0.001473974630212203</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001739436371326122</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC28">
-        <v>0.02476396615303558</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.01750506817831049</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU28">
-        <v>0.02743292071219722</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>2</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.02036128693279798</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM28">
-        <v>0.02866884291515015</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001476829607401217</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29">
-        <v>0.001473974630212203</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001710838796400475</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC29">
-        <v>0.02476396615303558</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.01707811529591268</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU29">
-        <v>0.02743292071219722</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>2</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.01986467017833949</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM29">
-        <v>0.02866884291515015</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001476829607401217</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
-        <v>0.001467954088122594</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001710838796400475</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC30">
-        <v>0.02463761938694866</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>3</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.01707811529591268</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU30">
-        <v>0.02729295683101254</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>3</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.01986467017833949</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM30">
-        <v>0.0285225733084402</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001476829607401217</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.001467954088122594</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001710838796400475</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC31">
-        <v>0.02463761938694866</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>3</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.01707811529591268</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU31">
-        <v>0.02729295683101254</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>3</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.01986467017833949</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM31">
-        <v>0.0285225733084402</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001476829607401217</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>0.001395707583047277</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>15</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001710838796400475</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC32">
-        <v>0.02312145819390567</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>15</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.01707811529591268</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU32">
-        <v>0.02561339025679638</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>15</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.01986467017833949</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM32">
-        <v>0.02676733802792081</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:71">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001470809065311607</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33">
-        <v>0.001106721562746008</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>63</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.001682241221474829</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC33">
-        <v>0.01705681342173368</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>63</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.01665116241351486</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>2</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU33">
-        <v>0.01889512395993176</v>
-      </c>
-      <c r="AV33">
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <v>1</v>
-      </c>
-      <c r="AX33">
-        <v>1</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>63</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.01936805342388101</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>2</v>
-      </c>
-      <c r="BL33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM33">
-        <v>0.01974639690584322</v>
-      </c>
-      <c r="BN33">
-        <v>1</v>
-      </c>
-      <c r="BO33">
-        <v>1</v>
-      </c>
-      <c r="BP33">
-        <v>1</v>
-      </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
-      <c r="BR33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:71">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.001236007923816827</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>41</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.0008418177108031792</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>107</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.0005669357993746235</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>41</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC34">
-        <v>0.01149755571390937</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>107</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>41</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU34">
-        <v>0.01273671318780585</v>
-      </c>
-      <c r="AV34">
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>107</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>41</v>
-      </c>
-      <c r="BL34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM34">
-        <v>0.01331053421060543</v>
-      </c>
-      <c r="BN34">
-        <v>1</v>
-      </c>
-      <c r="BO34">
-        <v>1</v>
-      </c>
-      <c r="BP34">
-        <v>1</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:71">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.0002939483806486917</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>198</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>198</v>
-      </c>
-      <c r="AT35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>1</v>
-      </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>1</v>
-      </c>
-      <c r="AY35">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>198</v>
-      </c>
-      <c r="BL35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM35">
-        <v>0</v>
-      </c>
-      <c r="BN35">
-        <v>1</v>
-      </c>
-      <c r="BO35">
-        <v>1</v>
-      </c>
-      <c r="BP35">
-        <v>1</v>
-      </c>
-      <c r="BQ35">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS35">
-        <v>198</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
